--- a/nmadb/481734.xlsx
+++ b/nmadb/481734.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="140" windowWidth="18200" windowHeight="14760"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="18195" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,9 +30,6 @@
   </si>
   <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>tx</t>
   </si>
   <si>
     <t>r</t>
@@ -159,12 +156,15 @@
   <si>
     <t>Savage</t>
   </si>
+  <si>
+    <t>t</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -626,17 +626,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="6" width="8.83203125" style="10"/>
-    <col min="9" max="9" width="44.83203125" customWidth="1"/>
+    <col min="1" max="6" width="8.85546875" style="10"/>
+    <col min="9" max="9" width="44.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -650,27 +650,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1">
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10">
         <v>1</v>
@@ -700,10 +700,10 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -711,7 +711,7 @@
         <v>2010</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="10">
         <v>2</v>
@@ -726,7 +726,7 @@
         <v>4675</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J4" s="6">
         <v>1</v>
@@ -746,7 +746,7 @@
         <v>4631</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J5" s="6">
         <v>2</v>
@@ -757,7 +757,7 @@
         <v>2003</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="10">
         <v>3</v>
@@ -772,7 +772,7 @@
         <v>2175</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J6" s="6">
         <v>3</v>
@@ -792,7 +792,7 @@
         <v>2167</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" s="6">
         <v>4</v>
@@ -803,7 +803,7 @@
         <v>2003</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="10">
         <v>4</v>
@@ -818,13 +818,13 @@
         <v>745</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J8" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="C9" s="10">
         <v>4</v>
       </c>
@@ -838,7 +838,7 @@
         <v>735</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J9" s="7">
         <v>6</v>
@@ -849,7 +849,7 @@
         <v>2003</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="10">
         <v>5</v>
@@ -880,10 +880,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="10">
         <v>6</v>
@@ -917,7 +917,7 @@
         <v>2009</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="10">
         <v>7</v>
@@ -951,7 +951,7 @@
         <v>2008</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="10">
         <v>8</v>
@@ -985,7 +985,7 @@
         <v>2004</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="10">
         <v>9</v>
@@ -1019,7 +1019,7 @@
         <v>2002</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="10">
         <v>10</v>
@@ -1053,7 +1053,7 @@
         <v>2003</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="10">
         <v>11</v>
@@ -1087,7 +1087,7 @@
         <v>2006</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="10">
         <v>12</v>
@@ -1121,7 +1121,7 @@
         <v>2003</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="10">
         <v>13</v>
@@ -1155,7 +1155,7 @@
         <v>2003</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="10">
         <v>14</v>
@@ -1189,7 +1189,7 @@
         <v>2001</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" s="10">
         <v>15</v>
@@ -1223,7 +1223,7 @@
         <v>2004</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="10">
         <v>16</v>
@@ -1257,7 +1257,7 @@
         <v>1999</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" s="10">
         <v>17</v>
@@ -1291,7 +1291,7 @@
         <v>2005</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" s="10">
         <v>18</v>
@@ -1325,7 +1325,7 @@
         <v>2006</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" s="10">
         <v>19</v>
@@ -1373,7 +1373,7 @@
         <v>2002</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C41" s="10">
         <v>20</v>
@@ -1421,7 +1421,7 @@
         <v>2005</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C44" s="10">
         <v>21</v>
@@ -1455,7 +1455,7 @@
         <v>2000</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C46" s="10">
         <v>22</v>
@@ -1489,7 +1489,7 @@
         <v>2005</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C48" s="10">
         <v>23</v>
@@ -1523,7 +1523,7 @@
         <v>2003</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C50" s="10">
         <v>24</v>
@@ -1557,7 +1557,7 @@
         <v>1987</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C52" s="10">
         <v>25</v>
@@ -1591,7 +1591,7 @@
         <v>1992</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C54" s="10">
         <v>26</v>
@@ -1639,7 +1639,7 @@
         <v>1991</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C57" s="10">
         <v>27</v>
@@ -1673,7 +1673,7 @@
         <v>1998</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C59" s="10">
         <v>28</v>
@@ -1714,12 +1714,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1731,12 +1731,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
